--- a/tamoxifen/Tamoxifen_Pre_and_Post_Test_Alerts_and_Flow.xlsx
+++ b/tamoxifen/Tamoxifen_Pre_and_Post_Test_Alerts_and_Flow.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrin/Desktop/TAM CPIC posting material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142BFA82-E07B-2545-9DB4-D7E8E2097313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="10780"/>
+    <workbookView xWindow="25080" yWindow="460" windowWidth="25440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-and Post-Test Alerts" sheetId="21" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_Toc457896813" localSheetId="0">'Pre-and Post-Test Alerts'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Pre-Test</t>
   </si>
@@ -283,32 +284,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>This patient is predicted to be a CYP2D6 intermediate metabolizer and may be at an increased risk of a poor tamoxifen response due to low endoxifen (active component of tamoxifen) concentrations. Consider hormonal therapy such as an aromatase inhibitor for postmenopausal women or aromatase inhibitor along with ovarian function suppression in premenopausal women. If aromatase inhibitor use is contraindicated, consideration should be given to use a higher but FDA approved tamoxifen dose (40 mg/day).  Avoid CYP2D6 inhibitors. Please consult a clinical pharmacist</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for more information.</t>
-    </r>
-  </si>
-  <si>
     <t>CYP2D6 and tamoxifen</t>
   </si>
   <si>
@@ -352,16 +327,10 @@
     <t>CYP2D6 Normal metabolizer and tamoxifen ordered</t>
   </si>
   <si>
-    <t>1.5-2</t>
-  </si>
-  <si>
     <t>CYP2D6 Poor metabolizer and tamoxifen ordered</t>
   </si>
   <si>
     <t>CYP2D6 Ultrarapid Metabolizer and  tamoxifen ordered</t>
-  </si>
-  <si>
-    <t>&gt;2</t>
   </si>
   <si>
     <r>
@@ -387,14 +356,30 @@
       <t xml:space="preserve"> for more information.</t>
     </r>
   </si>
+  <si>
+    <t>0.25 - 1</t>
+  </si>
+  <si>
+    <t>&gt;2.25</t>
+  </si>
+  <si>
+    <t>1.5-2.25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -612,63 +597,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,7 +698,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 2"/>
+        <xdr:cNvPr id="3" name="Group 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -717,7 +717,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Flowchart: Process 3"/>
+          <xdr:cNvPr id="4" name="Flowchart: Process 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -887,7 +893,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+          <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks noChangeShapeType="1"/>
             <a:stCxn id="4" idx="3"/>
@@ -916,7 +928,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Flowchart: Process 5"/>
+          <xdr:cNvPr id="6" name="Flowchart: Process 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1125,7 +1143,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 27"/>
+          <xdr:cNvPr id="7" name="TextBox 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1288,7 +1312,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 28"/>
+          <xdr:cNvPr id="8" name="TextBox 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1451,7 +1481,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Flowchart: Decision 8"/>
+          <xdr:cNvPr id="9" name="Flowchart: Decision 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1631,7 +1667,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+          <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks noChangeShapeType="1"/>
             <a:stCxn id="9" idx="2"/>
@@ -1660,7 +1702,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+          <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks noChangeShapeType="1"/>
             <a:stCxn id="9" idx="3"/>
@@ -1689,7 +1737,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Flowchart: Decision 11"/>
+          <xdr:cNvPr id="12" name="Flowchart: Decision 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1886,7 +1940,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+          <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks noChangeShapeType="1"/>
             <a:stCxn id="12" idx="3"/>
@@ -1915,7 +1975,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Flowchart: Process 13"/>
+          <xdr:cNvPr id="14" name="Flowchart: Process 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2122,7 +2188,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+          <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks noChangeShapeType="1"/>
             <a:stCxn id="12" idx="2"/>
@@ -2151,7 +2223,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Flowchart: Process 15"/>
+          <xdr:cNvPr id="16" name="Flowchart: Process 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2321,7 +2399,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="TextBox 35"/>
+          <xdr:cNvPr id="17" name="TextBox 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2484,7 +2568,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="TextBox 36"/>
+          <xdr:cNvPr id="18" name="TextBox 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2937,12 +3027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="16" customWidth="1"/>
@@ -2951,12 +3043,12 @@
     <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="35" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>8</v>
@@ -2965,20 +3057,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>16</v>
+    <row r="2" spans="1:4" ht="36" customHeight="1" thickBot="1">
+      <c r="A2" s="20" t="s">
+        <v>15</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
     </row>
-    <row r="3" spans="1:4" ht="85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="85" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>0</v>
@@ -2987,11 +3079,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="73" customHeight="1" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3001,12 +3093,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="35" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>23</v>
+      <c r="B5" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>1</v>
@@ -3015,65 +3107,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>22</v>
+    <row r="6" spans="1:4" ht="140" thickBot="1">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
       </c>
-      <c r="B6" s="13">
-        <v>1</v>
+      <c r="B6" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="120" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="113" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
+    <row r="9" spans="1:4" ht="19">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
+    <row r="10" spans="1:4" ht="19">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3085,39 +3163,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="19">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="19">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="19">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="19">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>

--- a/tamoxifen/Tamoxifen_Pre_and_Post_Test_Alerts_and_Flow.xlsx
+++ b/tamoxifen/Tamoxifen_Pre_and_Post_Test_Alerts_and_Flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142BFA82-E07B-2545-9DB4-D7E8E2097313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77DE353F-2235-AE4D-B912-DD2198E6A3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="460" windowWidth="25440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24820" yWindow="3300" windowWidth="25440" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-and Post-Test Alerts" sheetId="21" r:id="rId1"/>
@@ -363,16 +363,23 @@
     <t>&gt;2.25</t>
   </si>
   <si>
-    <t>1.5-2.25</t>
+    <t>1.25-2.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -597,68 +604,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3030,9 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
@@ -3058,12 +3066,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="85" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
@@ -3083,7 +3091,7 @@
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3097,7 +3105,7 @@
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
